--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_10_8.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_10_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1336504.6060021</v>
+        <v>-1339185.469065509</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>331.5096644391394</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>222.6338324177309</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,13 +707,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>146.6232669468673</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -820,13 +820,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>50.98074812542791</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>90.43460382792956</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>361.0929994049118</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>256.8449182533337</v>
       </c>
       <c r="I5" t="n">
         <v>65.70991267247049</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
@@ -956,13 +956,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,25 +1051,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>45.1260967335689</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>149.1207795852623</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1136,19 +1136,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>353.4278029681221</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>48.37731830093679</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1193,10 +1193,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>74.15117661083436</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1306,10 +1306,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,13 +1339,13 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>83.04406951956436</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,16 +1537,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>31.26260713376563</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>192.7715349547541</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1670,7 +1670,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1777,13 +1777,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>106.3652565620404</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,22 +1810,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>176.7621441121407</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365925</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -2008,19 +2008,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,22 +2047,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>20.72279572932659</v>
       </c>
       <c r="S19" t="n">
-        <v>180.1003471321689</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428166</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>60.32297266393854</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2527,10 +2527,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>240.7377005646511</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>66.85274231757823</v>
+        <v>38.05096575280767</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.154082144415</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2953,22 +2953,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>78.58522891595233</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>161.3555494301526</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,25 +3187,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E34" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308918</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H34" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652589</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3241,7 +3241,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V34" t="n">
         <v>227.8529958317883</v>
@@ -3250,7 +3250,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y34" t="n">
         <v>194.3000058600551</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3424,25 +3424,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E37" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H37" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3487,7 +3487,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,7 +3661,7 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D40" t="n">
         <v>124.3308255261727</v>
@@ -3670,16 +3670,16 @@
         <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H40" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3715,7 +3715,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V40" t="n">
         <v>227.8529958317883</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,7 +3901,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545295</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,40 +4304,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>877.9374416333219</v>
+        <v>1367.208738248819</v>
       </c>
       <c r="C2" t="n">
-        <v>877.9374416333219</v>
+        <v>1367.208738248819</v>
       </c>
       <c r="D2" t="n">
-        <v>877.9374416333219</v>
+        <v>1032.350491340598</v>
       </c>
       <c r="E2" t="n">
-        <v>877.9374416333219</v>
+        <v>646.5622387423534</v>
       </c>
       <c r="F2" t="n">
-        <v>466.9515368437143</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="G2" t="n">
-        <v>51.2467865680031</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872913</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2353.59368700598</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U2" t="n">
-        <v>2100.012626270159</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V2" t="n">
-        <v>1768.949738926588</v>
+        <v>2106.577233583055</v>
       </c>
       <c r="W2" t="n">
-        <v>1416.181083656474</v>
+        <v>1753.808578312941</v>
       </c>
       <c r="X2" t="n">
-        <v>1268.076773609134</v>
+        <v>1753.808578312941</v>
       </c>
       <c r="Y2" t="n">
-        <v>877.9374416333219</v>
+        <v>1753.808578312941</v>
       </c>
     </row>
     <row r="3">
@@ -4389,43 +4389,43 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182518</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>423.148951518066</v>
+        <v>590.20497511435</v>
       </c>
       <c r="L3" t="n">
-        <v>717.8525085495377</v>
+        <v>884.9085321458217</v>
       </c>
       <c r="M3" t="n">
-        <v>1081.114527508758</v>
+        <v>1248.170551105042</v>
       </c>
       <c r="N3" t="n">
-        <v>1528.154053606939</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O3" t="n">
-        <v>1860.224488783101</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q3" t="n">
         <v>2538.001278676482</v>
@@ -4440,7 +4440,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>716.5983551657491</v>
+        <v>326.0381161665167</v>
       </c>
       <c r="C4" t="n">
-        <v>547.6621722378422</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="D4" t="n">
-        <v>397.5455328255065</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="E4" t="n">
-        <v>249.6324392431134</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="F4" t="n">
-        <v>102.742491745203</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="G4" t="n">
-        <v>102.742491745203</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H4" t="n">
-        <v>102.742491745203</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="U4" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="V4" t="n">
-        <v>1636.446120074497</v>
+        <v>1245.885881075264</v>
       </c>
       <c r="W4" t="n">
-        <v>1347.028950037536</v>
+        <v>956.4687110383039</v>
       </c>
       <c r="X4" t="n">
-        <v>1119.039399139519</v>
+        <v>728.4791601402866</v>
       </c>
       <c r="Y4" t="n">
-        <v>898.2468199959889</v>
+        <v>507.6865809967564</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1284.324637962024</v>
+        <v>781.4578466818732</v>
       </c>
       <c r="C5" t="n">
-        <v>1284.324637962024</v>
+        <v>781.4578466818732</v>
       </c>
       <c r="D5" t="n">
-        <v>926.0589393552737</v>
+        <v>781.4578466818732</v>
       </c>
       <c r="E5" t="n">
-        <v>540.2706867570294</v>
+        <v>395.669594083629</v>
       </c>
       <c r="F5" t="n">
-        <v>129.2847819674218</v>
+        <v>388.7240933344255</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>377.0597470991185</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
@@ -4565,16 +4565,16 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T5" t="n">
-        <v>2353.59368700598</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U5" t="n">
-        <v>2353.59368700598</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V5" t="n">
-        <v>2022.530799662409</v>
+        <v>1897.831592188879</v>
       </c>
       <c r="W5" t="n">
-        <v>2022.530799662409</v>
+        <v>1545.062936918765</v>
       </c>
       <c r="X5" t="n">
-        <v>1649.065041401329</v>
+        <v>1171.597178657685</v>
       </c>
       <c r="Y5" t="n">
-        <v>1649.065041401329</v>
+        <v>781.4578466818732</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G6" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
         <v>51.2467865680031</v>
@@ -4647,22 +4647,22 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>423.148951518066</v>
+        <v>520.4109910936369</v>
       </c>
       <c r="L6" t="n">
-        <v>717.8525085495378</v>
+        <v>815.1145481251085</v>
       </c>
       <c r="M6" t="n">
-        <v>1081.114527508758</v>
+        <v>1178.376567084329</v>
       </c>
       <c r="N6" t="n">
-        <v>1715.293511287796</v>
+        <v>1565.661695681274</v>
       </c>
       <c r="O6" t="n">
-        <v>2047.363946463958</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P6" t="n">
-        <v>2294.546680296255</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4677,16 +4677,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>619.8914390106347</v>
+        <v>771.7836012132566</v>
       </c>
       <c r="C7" t="n">
-        <v>619.8914390106347</v>
+        <v>602.8474182853497</v>
       </c>
       <c r="D7" t="n">
-        <v>619.8914390106347</v>
+        <v>452.7307788730139</v>
       </c>
       <c r="E7" t="n">
-        <v>471.9783454282416</v>
+        <v>452.7307788730139</v>
       </c>
       <c r="F7" t="n">
-        <v>325.0883979303312</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="G7" t="n">
-        <v>157.1019332386098</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H7" t="n">
         <v>157.1019332386098</v>
@@ -4723,7 +4723,7 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
@@ -4738,37 +4738,37 @@
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.233965749941</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T7" t="n">
-        <v>1114.255484944676</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="U7" t="n">
-        <v>1114.255484944676</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="V7" t="n">
-        <v>1114.255484944676</v>
+        <v>1289.190322148235</v>
       </c>
       <c r="W7" t="n">
-        <v>1114.255484944676</v>
+        <v>999.7731521112739</v>
       </c>
       <c r="X7" t="n">
-        <v>886.2659340466587</v>
+        <v>771.7836012132566</v>
       </c>
       <c r="Y7" t="n">
-        <v>665.4733549031286</v>
+        <v>771.7836012132566</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1092.930574522032</v>
+        <v>1238.326884986527</v>
       </c>
       <c r="C8" t="n">
-        <v>723.9680575816208</v>
+        <v>869.3643680461155</v>
       </c>
       <c r="D8" t="n">
-        <v>723.9680575816208</v>
+        <v>511.098669439365</v>
       </c>
       <c r="E8" t="n">
-        <v>723.9680575816208</v>
+        <v>511.098669439365</v>
       </c>
       <c r="F8" t="n">
-        <v>366.9702768057398</v>
+        <v>100.1127646497574</v>
       </c>
       <c r="G8" t="n">
-        <v>355.3059305704328</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362815</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816079</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872914</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764996</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723849</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="U8" t="n">
-        <v>2184.059060190805</v>
+        <v>2308.758267664334</v>
       </c>
       <c r="V8" t="n">
-        <v>1852.996172847234</v>
+        <v>1977.695380320763</v>
       </c>
       <c r="W8" t="n">
-        <v>1852.996172847234</v>
+        <v>1624.926725050649</v>
       </c>
       <c r="X8" t="n">
-        <v>1479.530414586154</v>
+        <v>1624.926725050649</v>
       </c>
       <c r="Y8" t="n">
-        <v>1479.530414586154</v>
+        <v>1624.926725050649</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4878,28 @@
         <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>238.427330237016</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380226</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694943</v>
+        <v>979.6730931919905</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828714</v>
+        <v>1342.93511215121</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.79372942566</v>
+        <v>1730.220240748155</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>2062.290675924317</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2309.473409756614</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>758.6984582168177</v>
+        <v>939.770065904978</v>
       </c>
       <c r="C10" t="n">
-        <v>589.7622752889108</v>
+        <v>770.8338829770711</v>
       </c>
       <c r="D10" t="n">
-        <v>514.8620968941286</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="E10" t="n">
-        <v>514.8620968941286</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F10" t="n">
-        <v>367.9721493962183</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G10" t="n">
-        <v>199.9856847044969</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312195</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
@@ -4975,10 +4975,10 @@
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
@@ -4987,25 +4987,25 @@
         <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.233965749941</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T10" t="n">
-        <v>1337.233965749941</v>
+        <v>1449.979815085469</v>
       </c>
       <c r="U10" t="n">
-        <v>1048.115628253778</v>
+        <v>1449.979815085469</v>
       </c>
       <c r="V10" t="n">
-        <v>1048.115628253778</v>
+        <v>1449.979815085469</v>
       </c>
       <c r="W10" t="n">
-        <v>758.6984582168177</v>
+        <v>1160.562645048508</v>
       </c>
       <c r="X10" t="n">
-        <v>758.6984582168177</v>
+        <v>1160.562645048508</v>
       </c>
       <c r="Y10" t="n">
-        <v>758.6984582168177</v>
+        <v>939.770065904978</v>
       </c>
     </row>
     <row r="11">
@@ -5033,16 +5033,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5051,22 +5051,22 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,10 +5112,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5127,13 +5127,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1268.578514636218</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>538.7363435406111</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C13" t="n">
-        <v>538.7363435406111</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D13" t="n">
-        <v>388.6197041282754</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E13" t="n">
-        <v>240.7066105458823</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797189</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2002.343823311048</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U13" t="n">
-        <v>1713.268596655246</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V13" t="n">
-        <v>1458.584108449359</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W13" t="n">
-        <v>1169.166938412398</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X13" t="n">
-        <v>941.1773875143809</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y13" t="n">
-        <v>720.3848083708508</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="14">
@@ -5273,28 +5273,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5312,10 +5312,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
         <v>3094.515198591809</v>
@@ -5364,16 +5364,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263526</v>
+        <v>869.9745311434696</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>869.9745311434696</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>719.8578917311338</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>571.9447981487407</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>425.0548506508303</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2018.514925172274</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>2018.514925172274</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1500.405126015257</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>1272.415575117239</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>1051.622995973709</v>
       </c>
     </row>
     <row r="17">
@@ -5510,22 +5510,22 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5592,19 +5592,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O18" t="n">
         <v>1896.176478190825</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>803.8641191832229</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C19" t="n">
-        <v>634.927936255316</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2426.030966681951</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.997837274916</v>
+        <v>2243.176132336855</v>
       </c>
       <c r="T19" t="n">
-        <v>1978.396372297858</v>
+        <v>2023.574667359796</v>
       </c>
       <c r="U19" t="n">
-        <v>1978.396372297858</v>
+        <v>1734.499440703994</v>
       </c>
       <c r="V19" t="n">
-        <v>1723.711884091971</v>
+        <v>1479.814952498107</v>
       </c>
       <c r="W19" t="n">
-        <v>1434.29471405501</v>
+        <v>1479.814952498107</v>
       </c>
       <c r="X19" t="n">
-        <v>1206.305163156993</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="Y19" t="n">
-        <v>985.5125840134626</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="20">
@@ -5744,16 +5744,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5771,19 +5771,19 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,22 +5823,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N21" t="n">
         <v>1344.266747951538</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>809.0422355233313</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2386.030787960121</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2203.175953615025</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1983.574488637966</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1983.574488637966</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1728.890000432079</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1439.472830395119</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1211.483279497101</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>990.6907003535711</v>
       </c>
     </row>
     <row r="23">
@@ -5969,22 +5969,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -6002,7 +6002,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6011,25 +6011,25 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,31 +6060,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N24" t="n">
-        <v>2129.438138565707</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>559.7594328861248</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6175,22 +6175,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1734.29168600076</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1479.607197794873</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1190.190027757912</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>962.2004768598947</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>741.4078977163646</v>
       </c>
     </row>
     <row r="26">
@@ -6221,10 +6221,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6300,19 +6300,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N27" t="n">
         <v>1307.627092998424</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.435061037252</v>
+        <v>2341.482060890433</v>
       </c>
       <c r="T28" t="n">
-        <v>2159.833596060193</v>
+        <v>2341.482060890433</v>
       </c>
       <c r="U28" t="n">
-        <v>1870.758369404391</v>
+        <v>2052.406834234631</v>
       </c>
       <c r="V28" t="n">
-        <v>1616.073881198505</v>
+        <v>1797.722346028744</v>
       </c>
       <c r="W28" t="n">
-        <v>1326.656711161544</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="X28" t="n">
-        <v>1098.667160263527</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y28" t="n">
-        <v>1098.667160263527</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="29">
@@ -6437,64 +6437,64 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362699</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
         <v>3820.749612123003</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,31 +6534,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468472</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>954.2476448606607</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>785.3114619327538</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>635.194822520418</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>487.2817289380249</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>340.3917814401145</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>173.1956821549945</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>173.1956821549945</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1363.885660588918</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>1135.8961096909</v>
       </c>
     </row>
     <row r="32">
@@ -6686,34 +6686,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,28 +6774,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6835,22 +6835,22 @@
         <v>926.9575315319328</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656822</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384021</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6929,43 +6929,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,31 +7008,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7126,7 +7126,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
@@ -7135,7 +7135,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
         <v>1084.076049400516</v>
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,10 +7184,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,46 +7306,46 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319319</v>
       </c>
       <c r="C40" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656811</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150016</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942648</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580107</v>
       </c>
       <c r="G40" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954148</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380727</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311322</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N40" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P40" t="n">
         <v>2496.057455973196</v>
@@ -7357,25 +7357,25 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7385,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,19 +7421,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
         <v>4606.285157492578</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,28 +7482,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7543,43 +7543,43 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C43" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150029</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E43" t="n">
-        <v>533.581456494266</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F43" t="n">
-        <v>411.221455958012</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345482</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495416</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380739</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311333</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979287</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656415</v>
+        <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
         <v>2179.340199382519</v>
@@ -7588,7 +7588,7 @@
         <v>2496.057455973197</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
         <v>2596.781734931274</v>
@@ -7603,7 +7603,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
         <v>1483.798285518751</v>
@@ -7634,7 +7634,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,25 +7643,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,22 +7722,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7780,34 +7780,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656819</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954147</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380727</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L46" t="n">
         <v>898.2659412311322</v>
@@ -7828,7 +7828,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
         <v>2438.456847547834</v>
@@ -7837,7 +7837,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>168.7434581780645</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8067,16 +8067,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>60.35797727397642</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>98.24448441976858</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8304,19 +8304,19 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>249.3877325071649</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>305.1601501039158</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>154.0169020165191</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>193.3273467878349</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8550,10 +8550,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>138.9393975111062</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8702,7 +8702,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -22544,22 +22544,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>361.0160379458074</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>184.2422133239805</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22595,13 +22595,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22610,10 +22610,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>223.1078337316017</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>114.1584408891673</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922647</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>24.63391537253412</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23665,7 +23665,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>59.15888173022844</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23698,19 +23698,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>40.64330621514753</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.184474389243</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,22 +23935,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>45.65245098079509</v>
       </c>
       <c r="S19" t="n">
-        <v>0.9259388694757149</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194223</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>6.05227404618315</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24367,19 +24367,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24415,10 +24415,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>45.44677382459304</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>114.1735436840664</v>
+        <v>142.9753202488369</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>2.680607402613191</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>57.22910392194223</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1061404.640695989</v>
+        <v>1061404.64069599</v>
       </c>
     </row>
     <row r="3">
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>135401.7127154574</v>
+        <v>135401.7127154575</v>
       </c>
       <c r="C2" t="n">
-        <v>164208.3539728568</v>
+        <v>164208.3539728567</v>
       </c>
       <c r="D2" t="n">
-        <v>164208.3539728568</v>
+        <v>164208.3539728567</v>
       </c>
       <c r="E2" t="n">
-        <v>161429.3199380013</v>
+        <v>161429.3199380012</v>
       </c>
       <c r="F2" t="n">
-        <v>161429.3199380013</v>
+        <v>161429.3199380012</v>
       </c>
       <c r="G2" t="n">
         <v>161429.3199380012</v>
@@ -26335,16 +26335,16 @@
         <v>161429.3199380013</v>
       </c>
       <c r="J2" t="n">
-        <v>161429.3199380011</v>
+        <v>161429.3199380012</v>
       </c>
       <c r="K2" t="n">
-        <v>161429.3199380012</v>
+        <v>161429.3199380013</v>
       </c>
       <c r="L2" t="n">
         <v>164208.3539728568</v>
       </c>
       <c r="M2" t="n">
-        <v>164208.3539728569</v>
+        <v>164208.3539728568</v>
       </c>
       <c r="N2" t="n">
         <v>164208.3539728568</v>
@@ -26353,7 +26353,7 @@
         <v>164208.3539728568</v>
       </c>
       <c r="P2" t="n">
-        <v>164208.3539728567</v>
+        <v>164208.3539728568</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245461</v>
+        <v>507485.441624546</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.170374162029475e-10</v>
       </c>
       <c r="L3" t="n">
-        <v>19427.71799363177</v>
+        <v>19427.71799363163</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>132607.2937289268</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>49700.31489448738</v>
+        <v>49700.31489448746</v>
       </c>
       <c r="C4" t="n">
         <v>131909.726831625</v>
@@ -26424,37 +26424,37 @@
         <v>131909.726831625</v>
       </c>
       <c r="E4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707365</v>
       </c>
       <c r="F4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="G4" t="n">
         <v>6897.424496707359</v>
       </c>
       <c r="H4" t="n">
-        <v>6897.424496707319</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="I4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.424496707392</v>
       </c>
       <c r="J4" t="n">
-        <v>6897.424496707374</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="K4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707301</v>
       </c>
       <c r="L4" t="n">
-        <v>14888.28375980083</v>
+        <v>14888.28375980082</v>
       </c>
       <c r="M4" t="n">
-        <v>14888.28375980088</v>
+        <v>14888.28375980076</v>
       </c>
       <c r="N4" t="n">
-        <v>14888.28375980083</v>
+        <v>14888.28375980079</v>
       </c>
       <c r="O4" t="n">
-        <v>14888.28375980082</v>
+        <v>14888.28375980078</v>
       </c>
       <c r="P4" t="n">
         <v>14888.28375980083</v>
@@ -26473,7 +26473,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984469</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1121988.158194794</v>
+        <v>-1122348.241210512</v>
       </c>
       <c r="C6" t="n">
-        <v>-60639.14529861292</v>
+        <v>-60639.14529861294</v>
       </c>
       <c r="D6" t="n">
-        <v>-60639.14529861292</v>
+        <v>-60639.14529861302</v>
       </c>
       <c r="E6" t="n">
-        <v>-454076.0760071593</v>
+        <v>-454110.8139325951</v>
       </c>
       <c r="F6" t="n">
-        <v>53409.36561738681</v>
+        <v>53374.62769195103</v>
       </c>
       <c r="G6" t="n">
-        <v>53409.36561738675</v>
+        <v>53374.62769195103</v>
       </c>
       <c r="H6" t="n">
-        <v>53409.36561738673</v>
+        <v>53374.627691951</v>
       </c>
       <c r="I6" t="n">
-        <v>53409.36561738676</v>
+        <v>53374.62769195106</v>
       </c>
       <c r="J6" t="n">
-        <v>-114195.8121925958</v>
+        <v>-114230.5501180315</v>
       </c>
       <c r="K6" t="n">
-        <v>53409.36561738669</v>
+        <v>53374.62769195106</v>
       </c>
       <c r="L6" t="n">
-        <v>26728.23636550881</v>
+        <v>26728.23636550897</v>
       </c>
       <c r="M6" t="n">
-        <v>-86451.33936978612</v>
+        <v>-86451.33936978618</v>
       </c>
       <c r="N6" t="n">
         <v>46155.9543591406</v>
       </c>
       <c r="O6" t="n">
+        <v>46155.95435914058</v>
+      </c>
+      <c r="P6" t="n">
         <v>46155.95435914054</v>
-      </c>
-      <c r="P6" t="n">
-        <v>46155.95435914048</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="N2" t="n">
+        <v>24.28464749203967</v>
+      </c>
+      <c r="O2" t="n">
         <v>24.2846474920397</v>
       </c>
-      <c r="O2" t="n">
-        <v>24.28464749203971</v>
-      </c>
       <c r="P2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>934.0648921175392</v>
+      </c>
+      <c r="C3" t="n">
         <v>934.0648921175391</v>
       </c>
-      <c r="C3" t="n">
-        <v>934.0648921175392</v>
-      </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26805,28 +26805,28 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241348</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000385</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996101</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>21.71780371767318</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>23.17337718154357</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27394,10 +27394,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27540,22 +27540,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>53.81584707847267</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
@@ -27594,7 +27594,7 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>161.7030394958985</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>21.6408422585688</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>44.1736343090717</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27676,13 +27676,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,25 +27771,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>134.7058834483684</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>103.0168637385657</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27856,19 +27856,19 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>53.44824277358936</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>363.1703844720172</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>65.70991267247049</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
@@ -27913,10 +27913,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28014,7 +28014,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>74.464296407378</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28029,7 +28029,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,13 +28059,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>137.7046264776476</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28093,7 +28093,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28141,7 +28141,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-5.621818412198717e-13</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28260,7 +28260,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>4.147674796210292e-12</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -28390,7 +28390,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28539,7 +28539,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>1.131184035330079e-12</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
     </row>
     <row r="35">
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="C40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="D40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="E40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="F40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="G40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="H40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="I40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="J40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="K40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="L40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="R40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="S40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="T40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="U40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="V40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="W40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="X40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
   </sheetData>
@@ -31042,43 +31042,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,7 +31133,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040588</v>
@@ -31142,25 +31142,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31233,13 +31233,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31279,43 +31279,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,7 +31370,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040588</v>
@@ -31379,25 +31379,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31470,13 +31470,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31516,43 +31516,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,7 +31607,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040588</v>
@@ -31616,25 +31616,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31707,13 +31707,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>339.9772972286967</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>359.7096985496635</v>
       </c>
       <c r="O12" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32078,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>465.7451325200306</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32312,22 +32312,22 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>340.4395077511235</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
@@ -32549,19 +32549,19 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
@@ -32786,7 +32786,7 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32795,19 +32795,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>210.3948924365567</v>
       </c>
       <c r="N24" t="n">
-        <v>746.4857620875799</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -32959,7 +32959,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
         <v>790.8204499236507</v>
@@ -33020,22 +33020,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>370.9642309107744</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
         <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817572</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>164.2853229338208</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,34 +34199,34 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34235,13 +34235,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175661</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,31 +34436,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>551.7051287319853</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34472,13 +34472,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>355.3309544215493</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
-        <v>451.5550768668503</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634694</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977091</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
         <v>278.0112915831069</v>
@@ -34866,7 +34866,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
         <v>262.6644876295069</v>
@@ -34875,7 +34875,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>284.8319806632534</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
+        <v>391.1970995928739</v>
+      </c>
+      <c r="O6" t="n">
         <v>640.5848321000387</v>
       </c>
-      <c r="O6" t="n">
-        <v>335.424681996123</v>
-      </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>270.4976243473736</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
         <v>278.0112915831069</v>
@@ -35103,7 +35103,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
@@ -35112,7 +35112,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,16 +35249,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313197</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
         <v>391.1970995928739</v>
@@ -35267,10 +35267,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>255.4201198419607</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
         <v>278.0112915831069</v>
@@ -35340,7 +35340,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
         <v>262.6644876295069</v>
@@ -35349,7 +35349,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,22 +35492,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>197.8432633066783</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,22 +35729,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>334.4034204366973</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35960,22 +35960,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>197.843263306679</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
@@ -36197,19 +36197,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>25.73094315394655</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
@@ -36364,7 +36364,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36379,7 +36379,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36443,19 +36443,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>68.26085851453838</v>
       </c>
       <c r="N24" t="n">
-        <v>615.1440500042467</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36607,7 +36607,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
@@ -36668,22 +36668,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>228.3679864663299</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,31 +37142,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>25.73094315394657</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37233,7 +37233,7 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
         <v>445.9107804819471</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367767</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,31 +37379,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>25.73094315394658</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37470,7 +37470,7 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
         <v>445.9107804819471</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,10 +37701,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
         <v>450.5570744930848</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,28 +37853,28 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37938,25 +37938,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,25 +38090,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>409.1088842875408</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38175,25 +38175,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
